--- a/KeyExcel.xlsx
+++ b/KeyExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EE59AC-2AA3-45E2-8667-9F718094B49B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E57E3BF-46DF-434B-958A-48540100A32F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>openBrowser</t>
   </si>
@@ -34,34 +34,28 @@
     <t>Action</t>
   </si>
   <si>
-    <t>Object</t>
-  </si>
-  <si>
-    <t>Chrome</t>
-  </si>
-  <si>
-    <t>Objpath</t>
-  </si>
-  <si>
-    <t>xpath</t>
-  </si>
-  <si>
-    <t>https://www.craftsvilla.com/</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
-    <t>//span[contains(text(), 'Sign In')]</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
     <t>gr@grr.la</t>
   </si>
   <si>
-    <t>//*[@id="emailId"]</t>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>objectName</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>signIn</t>
+  </si>
+  <si>
+    <t>username</t>
   </si>
 </sst>
 </file>
@@ -118,7 +112,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -400,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,40 +406,41 @@
     <col min="2" max="2" width="50.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -453,26 +448,25 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{615CAE34-B107-4470-A499-7E78997762AF}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{8854CF3F-B4B5-4D6E-97C0-3DA8171DB9FB}"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{8854CF3F-B4B5-4D6E-97C0-3DA8171DB9FB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/KeyExcel.xlsx
+++ b/KeyExcel.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E57E3BF-46DF-434B-958A-48540100A32F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F70637-A89E-4CB7-9BF1-6936DDDC7078}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TC_01" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>openBrowser</t>
   </si>
@@ -56,6 +56,18 @@
   </si>
   <si>
     <t>username</t>
+  </si>
+  <si>
+    <t>TestCase Name</t>
+  </si>
+  <si>
+    <t>ORSheet</t>
+  </si>
+  <si>
+    <t>TC_OR01</t>
+  </si>
+  <si>
+    <t>OR_01</t>
   </si>
 </sst>
 </file>
@@ -87,15 +99,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -103,16 +121,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -394,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,64 +444,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{8854CF3F-B4B5-4D6E-97C0-3DA8171DB9FB}"/>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{8854CF3F-B4B5-4D6E-97C0-3DA8171DB9FB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/KeyExcel.xlsx
+++ b/KeyExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F70637-A89E-4CB7-9BF1-6936DDDC7078}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC4D1B3-66A5-4DBE-BE0E-CCE0131CCD32}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>openBrowser</t>
   </si>
@@ -434,7 +434,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,6 +450,9 @@
       <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -457,6 +460,9 @@
       </c>
       <c r="B2" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">

--- a/KeyExcel.xlsx
+++ b/KeyExcel.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC4D1B3-66A5-4DBE-BE0E-CCE0131CCD32}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90BF3BB-7D92-41E1-B2B8-7950B8B9FEBE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC_01" sheetId="1" r:id="rId1"/>
+    <sheet name="TC_02" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -67,7 +68,7 @@
     <t>TC_OR01</t>
   </si>
   <si>
-    <t>OR_01</t>
+    <t>OR_0</t>
   </si>
 </sst>
 </file>
@@ -434,7 +435,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,4 +529,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCF5680-2B42-476D-B48E-A9251F2E1D32}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>